--- a/exportorv2/test/Exp.xlsx
+++ b/exportorv2/test/Exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Exp" sheetId="1" r:id="rId1"/>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">TableName: "Exp" Package: "gamedef" </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TableName: "Exp" Package: "gamedef" </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">

--- a/exportorv2/test/Exp.xlsx
+++ b/exportorv2/test/Exp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,15 +568,16 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -586,6 +591,9 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/exportorv2/test/Exp.xlsx
+++ b/exportorv2/test/Exp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +500,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
